--- a/project_data/manual_classification/model vs manual work distribution.xlsx
+++ b/project_data/manual_classification/model vs manual work distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="264">
   <si>
     <t>file_id</t>
   </si>
@@ -813,13 +813,16 @@
   </si>
   <si>
     <t>Mike</t>
+  </si>
+  <si>
+    <t>Mike if he finish sparkML code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,13 +830,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -845,13 +860,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1163,7 @@
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,8 +1188,11 @@
       <c r="H1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1197,7 +1218,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1223,7 +1244,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1249,7 +1270,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1275,7 +1296,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1301,7 +1322,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1353,7 +1374,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1379,7 +1400,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1405,7 +1426,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1431,7 +1452,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1457,7 +1478,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1483,7 +1504,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1535,7 +1556,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4889,7 +4910,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>32</v>
       </c>
@@ -4915,7 +4936,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>32</v>
       </c>
@@ -4941,7 +4962,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>32</v>
       </c>
@@ -4967,7 +4988,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>32</v>
       </c>
@@ -4993,7 +5014,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>32</v>
       </c>
@@ -5019,7 +5040,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>32</v>
       </c>
@@ -5045,7 +5066,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>32</v>
       </c>
@@ -5071,7 +5092,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>32</v>
       </c>
@@ -5094,10 +5115,13 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
+        <v>261</v>
+      </c>
+      <c r="I152" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>32</v>
       </c>
@@ -5120,10 +5144,13 @@
         <v>1</v>
       </c>
       <c r="H153" t="s">
+        <v>261</v>
+      </c>
+      <c r="I153" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>32</v>
       </c>
@@ -5146,10 +5173,13 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
+        <v>261</v>
+      </c>
+      <c r="I154" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>32</v>
       </c>
@@ -5172,10 +5202,13 @@
         <v>1</v>
       </c>
       <c r="H155" t="s">
+        <v>261</v>
+      </c>
+      <c r="I155" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>32</v>
       </c>
@@ -5198,10 +5231,13 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
+        <v>261</v>
+      </c>
+      <c r="I156" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>32</v>
       </c>
@@ -5224,10 +5260,13 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
+        <v>261</v>
+      </c>
+      <c r="I157" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>32</v>
       </c>
@@ -5250,10 +5289,13 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
+        <v>261</v>
+      </c>
+      <c r="I158" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>32</v>
       </c>
@@ -5276,10 +5318,13 @@
         <v>1</v>
       </c>
       <c r="H159" t="s">
+        <v>261</v>
+      </c>
+      <c r="I159" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>32</v>
       </c>
@@ -5302,10 +5347,13 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
+        <v>261</v>
+      </c>
+      <c r="I160" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>32</v>
       </c>
@@ -5328,10 +5376,13 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
+        <v>261</v>
+      </c>
+      <c r="I161" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>33</v>
       </c>
@@ -5354,10 +5405,13 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
+        <v>261</v>
+      </c>
+      <c r="I162" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>33</v>
       </c>
@@ -5380,10 +5434,13 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
+        <v>261</v>
+      </c>
+      <c r="I163" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>33</v>
       </c>
@@ -5406,10 +5463,13 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
+        <v>261</v>
+      </c>
+      <c r="I164" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>33</v>
       </c>
@@ -5432,10 +5492,13 @@
         <v>1</v>
       </c>
       <c r="H165" t="s">
+        <v>261</v>
+      </c>
+      <c r="I165" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>34</v>
       </c>
@@ -5458,10 +5521,13 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
+        <v>261</v>
+      </c>
+      <c r="I166" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>34</v>
       </c>
@@ -5484,10 +5550,13 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
+        <v>261</v>
+      </c>
+      <c r="I167" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34</v>
       </c>
@@ -5510,10 +5579,13 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
+        <v>261</v>
+      </c>
+      <c r="I168" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>34</v>
       </c>
@@ -5536,10 +5608,13 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
+        <v>261</v>
+      </c>
+      <c r="I169" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>37</v>
       </c>
@@ -5559,10 +5634,13 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
+        <v>261</v>
+      </c>
+      <c r="I170" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>37</v>
       </c>
@@ -5585,10 +5663,13 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
+        <v>261</v>
+      </c>
+      <c r="I171" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>37</v>
       </c>
@@ -5611,10 +5692,13 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
+        <v>261</v>
+      </c>
+      <c r="I172" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>37</v>
       </c>
@@ -5637,10 +5721,13 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
+        <v>261</v>
+      </c>
+      <c r="I173" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>37</v>
       </c>
@@ -5663,10 +5750,13 @@
         <v>1</v>
       </c>
       <c r="H174" t="s">
+        <v>261</v>
+      </c>
+      <c r="I174" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>37</v>
       </c>
@@ -5689,10 +5779,13 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
+        <v>261</v>
+      </c>
+      <c r="I175" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>37</v>
       </c>
@@ -5715,10 +5808,13 @@
         <v>1</v>
       </c>
       <c r="H176" t="s">
+        <v>261</v>
+      </c>
+      <c r="I176" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>37</v>
       </c>
@@ -5741,10 +5837,13 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
+        <v>260</v>
+      </c>
+      <c r="I177" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>38</v>
       </c>
@@ -5767,10 +5866,13 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
+        <v>260</v>
+      </c>
+      <c r="I178" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>38</v>
       </c>
@@ -5793,10 +5895,13 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
+        <v>260</v>
+      </c>
+      <c r="I179" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>43</v>
       </c>
@@ -5819,10 +5924,13 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
+        <v>260</v>
+      </c>
+      <c r="I180" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>43</v>
       </c>
@@ -5845,10 +5953,13 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
+        <v>260</v>
+      </c>
+      <c r="I181" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>43</v>
       </c>
@@ -5871,10 +5982,13 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
+        <v>260</v>
+      </c>
+      <c r="I182" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>45</v>
       </c>
@@ -5897,10 +6011,13 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
+        <v>260</v>
+      </c>
+      <c r="I183" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>45</v>
       </c>
@@ -5923,10 +6040,13 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
+        <v>260</v>
+      </c>
+      <c r="I184" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>45</v>
       </c>
@@ -5949,10 +6069,13 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
+        <v>260</v>
+      </c>
+      <c r="I185" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>45</v>
       </c>
@@ -5975,10 +6098,13 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
+        <v>260</v>
+      </c>
+      <c r="I186" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>45</v>
       </c>
@@ -6001,10 +6127,13 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
+        <v>260</v>
+      </c>
+      <c r="I187" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>46</v>
       </c>
@@ -6027,10 +6156,13 @@
         <v>1</v>
       </c>
       <c r="H188" t="s">
+        <v>260</v>
+      </c>
+      <c r="I188" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>46</v>
       </c>
@@ -6050,10 +6182,13 @@
         <v>1</v>
       </c>
       <c r="H189" t="s">
+        <v>260</v>
+      </c>
+      <c r="I189" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>46</v>
       </c>
@@ -6076,10 +6211,13 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
+        <v>260</v>
+      </c>
+      <c r="I190" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>48</v>
       </c>
@@ -6102,10 +6240,13 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
+        <v>260</v>
+      </c>
+      <c r="I191" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>48</v>
       </c>
@@ -6128,10 +6269,13 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
+        <v>260</v>
+      </c>
+      <c r="I192" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>48</v>
       </c>
@@ -6154,10 +6298,13 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
+        <v>260</v>
+      </c>
+      <c r="I193" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>48</v>
       </c>
@@ -6180,10 +6327,13 @@
         <v>1</v>
       </c>
       <c r="H194" t="s">
+        <v>260</v>
+      </c>
+      <c r="I194" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>48</v>
       </c>
@@ -6206,10 +6356,13 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
+        <v>260</v>
+      </c>
+      <c r="I195" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>48</v>
       </c>
@@ -6229,10 +6382,13 @@
         <v>1</v>
       </c>
       <c r="H196" t="s">
+        <v>260</v>
+      </c>
+      <c r="I196" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>49</v>
       </c>
@@ -6255,10 +6411,13 @@
         <v>1</v>
       </c>
       <c r="H197" t="s">
+        <v>260</v>
+      </c>
+      <c r="I197" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>49</v>
       </c>
@@ -6281,10 +6440,13 @@
         <v>1</v>
       </c>
       <c r="H198" t="s">
+        <v>260</v>
+      </c>
+      <c r="I198" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>50</v>
       </c>
@@ -6307,10 +6469,13 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
+        <v>260</v>
+      </c>
+      <c r="I199" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>50</v>
       </c>
@@ -6333,10 +6498,13 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
+        <v>260</v>
+      </c>
+      <c r="I200" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>50</v>
       </c>
@@ -6359,6 +6527,9 @@
         <v>1</v>
       </c>
       <c r="H201" t="s">
+        <v>260</v>
+      </c>
+      <c r="I201" t="s">
         <v>262</v>
       </c>
     </row>
